--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Btc-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Btc-Egfr.xlsx
@@ -543,10 +543,10 @@
         <v>0.410797</v>
       </c>
       <c r="I2">
-        <v>0.1841212627547934</v>
+        <v>0.08243498013860336</v>
       </c>
       <c r="J2">
-        <v>0.1841212627547933</v>
+        <v>0.08243498013860337</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N2">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O2">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P2">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q2">
-        <v>0.2539508256505556</v>
+        <v>0.1877172950347778</v>
       </c>
       <c r="R2">
-        <v>2.285557430855</v>
+        <v>1.689455655313</v>
       </c>
       <c r="S2">
-        <v>0.003040526327674084</v>
+        <v>0.0009093100199700476</v>
       </c>
       <c r="T2">
-        <v>0.003040526327674085</v>
+        <v>0.0009093100199700476</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.410797</v>
       </c>
       <c r="I3">
-        <v>0.1841212627547934</v>
+        <v>0.08243498013860336</v>
       </c>
       <c r="J3">
-        <v>0.1841212627547933</v>
+        <v>0.08243498013860337</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>278.741173</v>
       </c>
       <c r="O3">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P3">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q3">
         <v>12.72289307165345</v>
@@ -635,10 +635,10 @@
         <v>114.506037644881</v>
       </c>
       <c r="S3">
-        <v>0.1523298506687091</v>
+        <v>0.06163019849033417</v>
       </c>
       <c r="T3">
-        <v>0.1523298506687091</v>
+        <v>0.06163019849033417</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.410797</v>
       </c>
       <c r="I4">
-        <v>0.1841212627547934</v>
+        <v>0.08243498013860336</v>
       </c>
       <c r="J4">
-        <v>0.1841212627547933</v>
+        <v>0.08243498013860337</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N4">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O4">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P4">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q4">
-        <v>2.379129684397223</v>
+        <v>4.069421357249334</v>
       </c>
       <c r="R4">
-        <v>21.412167159575</v>
+        <v>36.624792215244</v>
       </c>
       <c r="S4">
-        <v>0.0284850676261027</v>
+        <v>0.01971243840340537</v>
       </c>
       <c r="T4">
-        <v>0.02848506762610269</v>
+        <v>0.01971243840340537</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>0.410797</v>
       </c>
       <c r="I5">
-        <v>0.1841212627547934</v>
+        <v>0.08243498013860336</v>
       </c>
       <c r="J5">
-        <v>0.1841212627547933</v>
+        <v>0.08243498013860337</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N5">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O5">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P5">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q5">
-        <v>0.02220166079733334</v>
+        <v>0.03778524499233334</v>
       </c>
       <c r="R5">
-        <v>0.199814947176</v>
+        <v>0.340067204931</v>
       </c>
       <c r="S5">
-        <v>0.0002658181323075133</v>
+        <v>0.0001830332248937759</v>
       </c>
       <c r="T5">
-        <v>0.0002658181323075133</v>
+        <v>0.0001830332248937759</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.606775</v>
+        <v>1.524162666666667</v>
       </c>
       <c r="H6">
-        <v>1.820325</v>
+        <v>4.572488</v>
       </c>
       <c r="I6">
-        <v>0.8158787372452067</v>
+        <v>0.9175650198613966</v>
       </c>
       <c r="J6">
-        <v>0.8158787372452067</v>
+        <v>0.9175650198613967</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N6">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O6">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P6">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q6">
-        <v>1.125307723041667</v>
+        <v>2.089438527883555</v>
       </c>
       <c r="R6">
-        <v>10.127769507375</v>
+        <v>18.804946750952</v>
       </c>
       <c r="S6">
-        <v>0.01347319013386983</v>
+        <v>0.01012132307342265</v>
       </c>
       <c r="T6">
-        <v>0.01347319013386984</v>
+        <v>0.01012132307342265</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.606775</v>
+        <v>1.524162666666667</v>
       </c>
       <c r="H7">
-        <v>1.820325</v>
+        <v>4.572488</v>
       </c>
       <c r="I7">
-        <v>0.8158787372452067</v>
+        <v>0.9175650198613966</v>
       </c>
       <c r="J7">
-        <v>0.8158787372452067</v>
+        <v>0.9175650198613967</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>278.741173</v>
       </c>
       <c r="O7">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P7">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q7">
-        <v>56.37772508235833</v>
+        <v>141.6156298498249</v>
       </c>
       <c r="R7">
-        <v>507.399525741225</v>
+        <v>1274.540668648424</v>
       </c>
       <c r="S7">
-        <v>0.6750045288025904</v>
+        <v>0.6859917259246563</v>
       </c>
       <c r="T7">
-        <v>0.6750045288025905</v>
+        <v>0.6859917259246563</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.606775</v>
+        <v>1.524162666666667</v>
       </c>
       <c r="H8">
-        <v>1.820325</v>
+        <v>4.572488</v>
       </c>
       <c r="I8">
-        <v>0.8158787372452067</v>
+        <v>0.9175650198613966</v>
       </c>
       <c r="J8">
-        <v>0.8158787372452067</v>
+        <v>0.9175650198613967</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N8">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O8">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P8">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q8">
-        <v>10.54240718104167</v>
+        <v>45.29580382273066</v>
       </c>
       <c r="R8">
-        <v>94.881664629375</v>
+        <v>407.662234404576</v>
       </c>
       <c r="S8">
-        <v>0.1262231241379206</v>
+        <v>0.2194146696551099</v>
       </c>
       <c r="T8">
-        <v>0.1262231241379206</v>
+        <v>0.2194146696551099</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.606775</v>
+        <v>1.524162666666667</v>
       </c>
       <c r="H9">
-        <v>1.820325</v>
+        <v>4.572488</v>
       </c>
       <c r="I9">
-        <v>0.8158787372452067</v>
+        <v>0.9175650198613966</v>
       </c>
       <c r="J9">
-        <v>0.8158787372452067</v>
+        <v>0.9175650198613967</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N9">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O9">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P9">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q9">
-        <v>0.0983800714</v>
+        <v>0.4205789704026666</v>
       </c>
       <c r="R9">
-        <v>0.8854206426000001</v>
+        <v>3.785210733624</v>
       </c>
       <c r="S9">
-        <v>0.001177894170825673</v>
+        <v>0.002037301208207683</v>
       </c>
       <c r="T9">
-        <v>0.001177894170825673</v>
+        <v>0.002037301208207682</v>
       </c>
     </row>
   </sheetData>
